--- a/VersionRecords/Version 5.0.0.2 20160908/版本Bug和特性计划及评审表v5.0.0.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.0.2 20160908/版本Bug和特性计划及评审表v5.0.0.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.0.2 20160908\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="数据修复" sheetId="2" r:id="rId3"/>
     <sheet name="(生产)需要修改的配置文件" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -311,12 +306,24 @@
     <t>EQ组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1058,17 +1065,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1093,7 +1100,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1184,17 +1191,25 @@
       <c r="K2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1226,16 +1241,24 @@
       <c r="K3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1267,16 +1290,24 @@
       <c r="K4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
+      <c r="L4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="33">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1308,16 +1339,24 @@
       <c r="K5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
+      <c r="L5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="33">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1349,16 +1388,24 @@
       <c r="K6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
+      <c r="L6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1390,16 +1437,24 @@
       <c r="K7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
+      <c r="L7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1431,16 +1486,24 @@
       <c r="K8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
+      <c r="L8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="11">
+        <v>42621</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -1461,7 +1524,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
@@ -1482,7 +1545,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
@@ -1503,7 +1566,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1524,7 +1587,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -1545,7 +1608,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1566,7 +1629,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1587,7 +1650,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1608,7 +1671,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1629,7 +1692,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1650,7 +1713,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1671,7 +1734,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1692,7 +1755,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1713,7 +1776,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -1734,7 +1797,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -1755,7 +1818,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -1776,7 +1839,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -1797,7 +1860,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -1818,7 +1881,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -1839,7 +1902,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -1860,7 +1923,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -1881,7 +1944,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -1902,7 +1965,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -1923,7 +1986,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -1944,7 +2007,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -1965,7 +2028,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -1986,7 +2049,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2007,7 +2070,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2028,7 +2091,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2049,7 +2112,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2070,7 +2133,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2091,7 +2154,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2112,7 +2175,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2133,7 +2196,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2154,7 +2217,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2175,7 +2238,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2196,7 +2259,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2217,7 +2280,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2238,7 +2301,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2259,7 +2322,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2280,7 +2343,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2301,7 +2364,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2322,7 +2385,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2343,7 +2406,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2364,7 +2427,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2385,7 +2448,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2406,7 +2469,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2427,7 +2490,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2448,7 +2511,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2469,7 +2532,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2490,7 +2553,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2511,7 +2574,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2532,7 +2595,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2553,7 +2616,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2574,7 +2637,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2595,7 +2658,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2616,7 +2679,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2637,7 +2700,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2658,7 +2721,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2679,7 +2742,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2700,7 +2763,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2721,7 +2784,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2742,7 +2805,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2763,7 +2826,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2784,7 +2847,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2805,7 +2868,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2826,7 +2889,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2847,7 +2910,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -2868,7 +2931,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -2889,7 +2952,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -2910,7 +2973,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -2931,7 +2994,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -2952,7 +3015,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -2973,7 +3036,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -2994,7 +3057,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3015,7 +3078,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3036,7 +3099,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3057,7 +3120,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3078,7 +3141,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3099,7 +3162,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3120,7 +3183,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3141,7 +3204,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3162,7 +3225,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3183,7 +3246,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3204,7 +3267,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3225,7 +3288,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3246,7 +3309,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3267,7 +3330,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3288,7 +3351,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3309,7 +3372,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3330,7 +3393,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3351,7 +3414,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3372,7 +3435,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3393,7 +3456,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3414,7 +3477,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3435,7 +3498,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3456,7 +3519,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3477,7 +3540,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3498,7 +3561,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3519,7 +3582,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3540,7 +3603,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3561,7 +3624,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3582,7 +3645,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3603,7 +3666,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3624,7 +3687,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3645,7 +3708,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3666,7 +3729,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3687,7 +3750,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3705,7 +3768,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3723,7 +3786,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3741,7 +3804,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3759,7 +3822,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3777,7 +3840,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3795,7 +3858,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3813,7 +3876,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3831,7 +3894,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3849,7 +3912,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -3867,7 +3930,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -3885,7 +3948,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -3903,7 +3966,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -3921,7 +3984,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -3939,7 +4002,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -3957,7 +4020,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -3975,7 +4038,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -3993,7 +4056,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4011,7 +4074,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4029,7 +4092,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4047,7 +4110,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4065,7 +4128,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4083,7 +4146,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4101,7 +4164,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4119,7 +4182,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4137,7 +4200,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4155,7 +4218,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4173,7 +4236,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4191,7 +4254,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4209,7 +4272,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4227,7 +4290,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4245,7 +4308,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4263,7 +4326,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4281,7 +4344,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4299,7 +4362,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4325,21 +4388,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
@@ -4352,7 +4415,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4363,7 +4426,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4392,7 +4455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27" t="s">
         <v>36</v>
@@ -4407,7 +4470,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4418,7 +4481,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4429,7 +4492,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4440,7 +4503,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4451,7 +4514,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4462,7 +4525,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4473,7 +4536,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4484,7 +4547,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4495,7 +4558,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4506,7 +4569,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4535,14 +4598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4553,7 +4616,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4579,7 +4642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4589,7 +4652,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4599,7 +4662,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4609,7 +4672,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4619,7 +4682,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4629,7 +4692,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4639,7 +4702,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4649,7 +4712,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4659,7 +4722,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4669,7 +4732,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4679,7 +4742,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4689,7 +4752,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4699,7 +4762,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4709,7 +4772,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4719,7 +4782,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4729,7 +4792,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4739,7 +4802,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4749,7 +4812,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4771,14 +4834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -5614,7 +5677,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="39" t="s">
         <v>38</v>
       </c>
@@ -5631,7 +5694,7 @@
       <c r="L1" s="39"/>
       <c r="M1" s="40"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5646,7 +5709,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="42"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="38.25" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29" t="s">
         <v>46</v>
@@ -5708,7 +5771,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -5723,7 +5786,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -5738,7 +5801,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -5753,7 +5816,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -5768,7 +5831,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -5783,7 +5846,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5798,7 +5861,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5813,7 +5876,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -5828,7 +5891,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
